--- a/config_11.9/new_fake_data_server.xlsx
+++ b/config_11.9/new_fake_data_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14475"/>
+    <workbookView windowHeight="18075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main|数据配置" sheetId="2" r:id="rId1"/>
@@ -1192,8 +1192,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1250,8 +1250,8 @@
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1421,6 +1421,9 @@
         <v>36</v>
       </c>
       <c r="D8" s="3"/>
+      <c r="G8" s="2">
+        <v>8</v>
+      </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
@@ -1435,6 +1438,9 @@
       </c>
       <c r="D9" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8</v>
       </c>
       <c r="J9" s="3"/>
     </row>
